--- a/Jogos_do_Dia/2024-03-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>4.08</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -754,43 +754,43 @@
         <v>2.68</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
         <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="M3" t="n">
         <v>1.51</v>
@@ -857,16 +857,16 @@
         <v>2.65</v>
       </c>
       <c r="S3" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>1.45</v>
@@ -893,43 +893,43 @@
         <v>2.74</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>9.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="K4" t="n">
         <v>5.25</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -1032,43 +1032,43 @@
         <v>2.79</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
@@ -1180,34 +1180,34 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.42</v>
@@ -1389,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.34</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.5</v>
@@ -1552,16 +1552,16 @@
         <v>2.8</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>1.15</v>
@@ -1588,43 +1588,43 @@
         <v>3.09</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -1646,94 +1646,94 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="N9" t="n">
-        <v>3.29</v>
+        <v>3.54</v>
       </c>
       <c r="O9" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="R9" t="n">
-        <v>3.74</v>
+        <v>4.55</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1.67</v>
       </c>
-      <c r="V9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1800,109 +1800,109 @@
         <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="K10" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="L10" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="N10" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="R10" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.28</v>
+        <v>2.44</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>2.13</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.63</v>
+        <v>1.11</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="11">
@@ -1924,130 +1924,130 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.37</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>7.25</v>
+        <v>1.91</v>
       </c>
       <c r="M11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="N11" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="R11" t="n">
-        <v>4.1</v>
+        <v>3.74</v>
       </c>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.44</v>
+        <v>1.23</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.13</v>
+        <v>0.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Germany 2. Bundesliga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,134 +2059,134 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.76</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.44</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>1.48</v>
       </c>
       <c r="K12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R12" t="n">
         <v>3.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="S12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.75</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.98</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.95</v>
+        <v>1.07</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.18</v>
+        <v>2.55</v>
       </c>
       <c r="Z12" t="n">
         <v>1.73</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AB12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>1.67</v>
       </c>
-      <c r="AC12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Germany 2. Bundesliga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>4.76</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>2.44</v>
       </c>
       <c r="J13" t="n">
-        <v>1.54</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.02</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>5.8</v>
+        <v>1.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P13" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R13" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.95</v>
       </c>
       <c r="X13" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.55</v>
+        <v>1.18</v>
       </c>
       <c r="Z13" t="n">
         <v>1.73</v>
       </c>
       <c r="AA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC13" t="n">
         <v>1.55</v>
       </c>
-      <c r="AB13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AD13" t="n">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="14">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U14" t="n">
         <v>1.47</v>
@@ -2431,22 +2431,22 @@
         <v>2.1</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AN14" t="n">
         <v>1.82</v>
@@ -2455,10 +2455,10 @@
         <v>1.98</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="15">
@@ -2570,16 +2570,16 @@
         <v>2.44</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL15" t="n">
         <v>1.88</v>
@@ -2700,37 +2700,37 @@
         <v>2.76</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.25</v>
@@ -2776,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>2.6</v>
@@ -2803,16 +2803,16 @@
         <v>3.98</v>
       </c>
       <c r="S17" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
         <v>1.47</v>
@@ -2839,13 +2839,13 @@
         <v>2.99</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -2854,28 +2854,28 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="18">
@@ -2930,7 +2930,7 @@
         <v>3.7</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
         <v>30</v>
@@ -2978,13 +2978,13 @@
         <v>3.17</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -2993,28 +2993,28 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="19">
@@ -3117,13 +3117,13 @@
         <v>2.93</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -3132,28 +3132,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
         <v>2.25</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="K20" t="n">
         <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>1.35</v>
@@ -3220,10 +3220,10 @@
         <v>3.56</v>
       </c>
       <c r="S20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>1.8</v>
@@ -3256,13 +3256,13 @@
         <v>3.43</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -3271,28 +3271,28 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="21">
@@ -3453,124 +3453,124 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R22" t="n">
         <v>4.2</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R22" t="n">
-        <v>6.5</v>
-      </c>
       <c r="S22" t="n">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="23">
@@ -3592,124 +3592,124 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>2.95</v>
       </c>
       <c r="J23" t="n">
-        <v>1.44</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>6.5</v>
+        <v>2.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.02</v>
       </c>
       <c r="P23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R23" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="S23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.46</v>
+        <v>0.92</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24">
@@ -3731,124 +3731,124 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="N24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P24" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T24" t="n">
         <v>3</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO24" t="n">
         <v>1.7</v>
       </c>
-      <c r="T24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25">
@@ -3870,37 +3870,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I25" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="M25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.02</v>
@@ -3909,55 +3909,55 @@
         <v>15</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R25" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="X25" t="n">
         <v>1.22</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.77</v>
+        <v>3.06</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -3966,28 +3966,28 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="26">
@@ -4009,124 +4009,124 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>1.44</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.02</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE26" t="n">
         <v>1.22</v>
       </c>
-      <c r="R26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AF26" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>1.38</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4229,43 +4229,43 @@
         <v>3.31</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="28">
@@ -4305,13 +4305,13 @@
         <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.64</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>2.59</v>
+        <v>2.8</v>
       </c>
       <c r="M28" t="n">
         <v>1.28</v>
@@ -4332,10 +4332,10 @@
         <v>4.55</v>
       </c>
       <c r="S28" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T28" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4368,13 +4368,13 @@
         <v>3.2</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -4383,34 +4383,34 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -4422,128 +4422,128 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ruch Chorzów</t>
+          <t>Sporting Gijón</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>1.95</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="N29" t="n">
         <v>2.45</v>
       </c>
       <c r="O29" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R29" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S29" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T29" t="n">
         <v>1.53</v>
       </c>
       <c r="U29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="X29" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.82</v>
+        <v>1.93</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.74</v>
+        <v>2.84</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.91</v>
+        <v>4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="30">
@@ -4610,10 +4610,10 @@
         <v>4.95</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T30" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="U30" t="n">
         <v>1.67</v>
@@ -4688,7 +4688,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,128 +4700,128 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sporting Gijón</t>
+          <t>Ruch Chorzów</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
         <v>1.95</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="M31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="N31" t="n">
         <v>2.45</v>
       </c>
       <c r="O31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R31" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S31" t="n">
         <v>2.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.73</v>
       </c>
-      <c r="W31" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X31" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.93</v>
+        <v>0.82</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AC31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="32">
@@ -4843,37 +4843,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Connah's Quay</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="H32" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.49</v>
+        <v>1.91</v>
       </c>
       <c r="M32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N32" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="O32" t="n">
         <v>1.02</v>
@@ -4882,46 +4882,46 @@
         <v>10</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="R32" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="S32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.56</v>
       </c>
-      <c r="T32" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.47</v>
-      </c>
       <c r="V32" t="n">
-        <v>2.42</v>
+        <v>2.21</v>
       </c>
       <c r="W32" t="n">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="X32" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.08</v>
+        <v>2.08</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.68</v>
+        <v>3.16</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -4966,7 +4966,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4978,128 +4978,128 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Connah's Quay</t>
+          <t>Sporting Charleroi</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>3.65</v>
       </c>
       <c r="J33" t="n">
-        <v>3.78</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="M33" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="N33" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O33" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P33" t="n">
         <v>10</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="R33" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="S33" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="T33" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="U33" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="X33" t="n">
         <v>1.22</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.21</v>
+        <v>1.73</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.08</v>
+        <v>0.31</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.78</v>
+        <v>1.19</v>
       </c>
       <c r="AD33" t="n">
-        <v>3.16</v>
+        <v>2.61</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="34">
@@ -5244,7 +5244,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -5256,98 +5256,98 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sporting Charleroi</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H35" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="K35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.25</v>
       </c>
-      <c r="L35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.95</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P35" t="n">
         <v>10</v>
       </c>
       <c r="Q35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC35" t="n">
         <v>1.25</v>
       </c>
-      <c r="R35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.19</v>
-      </c>
       <c r="AD35" t="n">
-        <v>2.61</v>
+        <v>2.68</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -5356,22 +5356,22 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AP35" t="n">
         <v>0</v>
@@ -5444,10 +5444,10 @@
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="T36" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="U36" t="n">
         <v>1.5</v>
@@ -5628,10 +5628,10 @@
         <v>2.41</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ37" t="n">
         <v>1.24</v>
